--- a/biology/Médecine/Hyponychium/Hyponychium.xlsx
+++ b/biology/Médecine/Hyponychium/Hyponychium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyponychium est la zone épaissie de l'épiderme de chacun des doigts, recouverte du bord libre de l'ongle. Sa limite proximale, où l'épiderme est en contact avec l'ongle (lit unguéal), est appelée la bande onychodermale. La partie distale de l'hyponychium se continue avec la pulpe du doigt.
 </t>
